--- a/OUTPUT Default/time weston minutes.xlsx
+++ b/OUTPUT Default/time weston minutes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="593">
   <si>
     <t>EMPLID</t>
   </si>
@@ -991,6 +991,24 @@
     <t>5/5/2023 15:15</t>
   </si>
   <si>
+    <t>4/23/2023 07:30</t>
+  </si>
+  <si>
+    <t>4/27/2023 07:35</t>
+  </si>
+  <si>
+    <t>4/29/2023 07:49</t>
+  </si>
+  <si>
+    <t>4/30/2023 07:37</t>
+  </si>
+  <si>
+    <t>5/1/2023 07:42</t>
+  </si>
+  <si>
+    <t>5/4/2023 07:39</t>
+  </si>
+  <si>
     <t>5/4/2023 16:30</t>
   </si>
   <si>
@@ -1042,6 +1060,12 @@
     <t>5/5/2023 19:52</t>
   </si>
   <si>
+    <t>4/24/2023 19:36</t>
+  </si>
+  <si>
+    <t>4/25/2023 20:23</t>
+  </si>
+  <si>
     <t xml:space="preserve">4/26/2023 </t>
   </si>
   <si>
@@ -1111,6 +1135,12 @@
     <t>5/4/2023 19:44</t>
   </si>
   <si>
+    <t>4/24/2023 07:47</t>
+  </si>
+  <si>
+    <t>4/25/2023 07:54</t>
+  </si>
+  <si>
     <t>4/30/2023 07:38</t>
   </si>
   <si>
@@ -1312,6 +1342,24 @@
     <t>5/5/2023 16:59</t>
   </si>
   <si>
+    <t>4/23/2023 19:46</t>
+  </si>
+  <si>
+    <t>4/28/2023 19:50</t>
+  </si>
+  <si>
+    <t>4/29/2023 19:36</t>
+  </si>
+  <si>
+    <t>4/30/2023 19:51</t>
+  </si>
+  <si>
+    <t>5/1/2023 19:28</t>
+  </si>
+  <si>
+    <t>5/4/2023 19:55</t>
+  </si>
+  <si>
     <t>4/24/2023 16:28</t>
   </si>
   <si>
@@ -1342,6 +1390,9 @@
     <t>5/5/2023 14:23</t>
   </si>
   <si>
+    <t>4/24/2023 17:05</t>
+  </si>
+  <si>
     <t xml:space="preserve">4/24/2023 </t>
   </si>
   <si>
@@ -1442,6 +1493,9 @@
   </si>
   <si>
     <t>5/5/2023 15:12</t>
+  </si>
+  <si>
+    <t>4/24/2023 18:39</t>
   </si>
   <si>
     <t>4/25/2023 07:31</t>
@@ -2181,13 +2235,13 @@
         <v>300</v>
       </c>
       <c r="J2" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R2" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S2" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2210,13 +2264,13 @@
         <v>301</v>
       </c>
       <c r="J3" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R3" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="S3" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2239,13 +2293,13 @@
         <v>302</v>
       </c>
       <c r="J4" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R4" t="s">
         <v>85</v>
       </c>
       <c r="S4" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2268,13 +2322,13 @@
         <v>303</v>
       </c>
       <c r="J5" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R5" t="s">
         <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2297,13 +2351,13 @@
         <v>304</v>
       </c>
       <c r="J6" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R6" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="S6" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2326,13 +2380,13 @@
         <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="S7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2355,13 +2409,13 @@
         <v>306</v>
       </c>
       <c r="J8" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R8" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S8" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2384,13 +2438,13 @@
         <v>307</v>
       </c>
       <c r="J9" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R9" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S9" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2413,13 +2467,13 @@
         <v>308</v>
       </c>
       <c r="J10" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R10" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S10" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2442,13 +2496,13 @@
         <v>309</v>
       </c>
       <c r="J11" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R11" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S11" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2471,13 +2525,13 @@
         <v>310</v>
       </c>
       <c r="J12" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R12" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S12" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2500,13 +2554,13 @@
         <v>311</v>
       </c>
       <c r="J13" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R13" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S13" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2529,13 +2583,13 @@
         <v>312</v>
       </c>
       <c r="J14" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R14" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S14" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2558,13 +2612,13 @@
         <v>313</v>
       </c>
       <c r="J15" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R15" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S15" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2587,13 +2641,13 @@
         <v>314</v>
       </c>
       <c r="J16" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R16" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S16" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="2:19">
@@ -2616,13 +2670,13 @@
         <v>315</v>
       </c>
       <c r="J17" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R17" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S17" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="2:19">
@@ -2645,13 +2699,13 @@
         <v>316</v>
       </c>
       <c r="J18" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R18" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S18" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="2:19">
@@ -2674,13 +2728,13 @@
         <v>317</v>
       </c>
       <c r="J19" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R19" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S19" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="2:19">
@@ -2703,13 +2757,13 @@
         <v>318</v>
       </c>
       <c r="J20" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R20" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S20" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -2732,13 +2786,13 @@
         <v>319</v>
       </c>
       <c r="J21" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R21" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S21" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -2761,13 +2815,13 @@
         <v>320</v>
       </c>
       <c r="J22" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="R22" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S22" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="2:19">
@@ -2790,13 +2844,13 @@
         <v>321</v>
       </c>
       <c r="J23" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R23" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S23" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -2819,13 +2873,13 @@
         <v>322</v>
       </c>
       <c r="J24" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R24" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S24" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="2:19">
@@ -2848,13 +2902,13 @@
         <v>323</v>
       </c>
       <c r="J25" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R25" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S25" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="2:19">
@@ -2877,13 +2931,13 @@
         <v>324</v>
       </c>
       <c r="J26" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R26" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S26" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="2:19">
@@ -2903,16 +2957,16 @@
         <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="J27" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R27" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="S27" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="2:19">
@@ -2932,16 +2986,16 @@
         <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c r="J28" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R28" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="S28" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="2:19">
@@ -2961,16 +3015,16 @@
         <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
       <c r="J29" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R29" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="S29" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="2:19">
@@ -2990,16 +3044,16 @@
         <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
       <c r="J30" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R30" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="S30" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="2:19">
@@ -3019,16 +3073,16 @@
         <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="J31" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R31" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="S31" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -3048,16 +3102,16 @@
         <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R32" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="S32" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="2:19">
@@ -3080,13 +3134,13 @@
         <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R33" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S33" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="2:19">
@@ -3109,13 +3163,13 @@
         <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R34" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S34" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="2:19">
@@ -3135,16 +3189,16 @@
         <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J35" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R35" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S35" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3167,13 +3221,13 @@
         <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R36" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S36" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="2:19">
@@ -3193,16 +3247,16 @@
         <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="R37" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S37" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="2:19">
@@ -3222,16 +3276,16 @@
         <v>121</v>
       </c>
       <c r="H38" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="R38" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S38" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="2:19">
@@ -3251,16 +3305,16 @@
         <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J39" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R39" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S39" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3280,16 +3334,16 @@
         <v>123</v>
       </c>
       <c r="H40" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="J40" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="R40" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S40" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="2:19">
@@ -3312,13 +3366,13 @@
         <v>302</v>
       </c>
       <c r="J41" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="R41" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S41" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="2:19">
@@ -3338,16 +3392,16 @@
         <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J42" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R42" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S42" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -3367,16 +3421,16 @@
         <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R43" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S43" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="2:19">
@@ -3396,16 +3450,16 @@
         <v>127</v>
       </c>
       <c r="H44" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R44" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S44" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="2:19">
@@ -3425,16 +3479,16 @@
         <v>128</v>
       </c>
       <c r="H45" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J45" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R45" t="s">
         <v>87</v>
       </c>
       <c r="S45" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -3454,16 +3508,16 @@
         <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="J46" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R46" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="S46" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="2:19">
@@ -3483,16 +3537,16 @@
         <v>130</v>
       </c>
       <c r="H47" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="J47" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R47" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="S47" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="2:19">
@@ -3512,16 +3566,16 @@
         <v>122</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="J48" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R48" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S48" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="49" spans="2:19">
@@ -3541,16 +3595,16 @@
         <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="J49" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R49" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S49" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="2:19">
@@ -3570,16 +3624,16 @@
         <v>132</v>
       </c>
       <c r="H50" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="J50" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R50" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S50" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="2:19">
@@ -3599,16 +3653,16 @@
         <v>133</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="R51" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S51" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="2:19">
@@ -3628,16 +3682,16 @@
         <v>134</v>
       </c>
       <c r="H52" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="J52" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R52" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S52" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="53" spans="2:19">
@@ -3657,16 +3711,16 @@
         <v>135</v>
       </c>
       <c r="H53" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J53" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R53" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S53" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="2:19">
@@ -3686,16 +3740,16 @@
         <v>136</v>
       </c>
       <c r="H54" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="J54" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R54" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="S54" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="2:19">
@@ -3715,16 +3769,16 @@
         <v>137</v>
       </c>
       <c r="H55" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="J55" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="R55" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S55" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="2:19">
@@ -3744,16 +3798,16 @@
         <v>138</v>
       </c>
       <c r="H56" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J56" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R56" t="s">
         <v>87</v>
       </c>
       <c r="S56" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="2:19">
@@ -3773,16 +3827,16 @@
         <v>139</v>
       </c>
       <c r="H57" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="J57" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R57" t="s">
         <v>87</v>
       </c>
       <c r="S57" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="2:19">
@@ -3802,16 +3856,16 @@
         <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J58" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R58" t="s">
         <v>87</v>
       </c>
       <c r="S58" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="2:19">
@@ -3834,13 +3888,13 @@
         <v>302</v>
       </c>
       <c r="J59" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R59" t="s">
         <v>87</v>
       </c>
       <c r="S59" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="2:19">
@@ -3863,13 +3917,13 @@
         <v>303</v>
       </c>
       <c r="J60" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R60" t="s">
         <v>87</v>
       </c>
       <c r="S60" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="2:19">
@@ -3889,16 +3943,16 @@
         <v>142</v>
       </c>
       <c r="H61" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J61" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R61" t="s">
         <v>87</v>
       </c>
       <c r="S61" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="2:19">
@@ -3918,16 +3972,16 @@
         <v>143</v>
       </c>
       <c r="H62" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J62" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R62" t="s">
         <v>87</v>
       </c>
       <c r="S62" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="2:19">
@@ -3947,16 +4001,16 @@
         <v>144</v>
       </c>
       <c r="H63" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J63" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R63" t="s">
         <v>87</v>
       </c>
       <c r="S63" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="2:19">
@@ -3976,16 +4030,16 @@
         <v>145</v>
       </c>
       <c r="H64" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J64" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R64" t="s">
         <v>87</v>
       </c>
       <c r="S64" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" spans="2:19">
@@ -4005,16 +4059,16 @@
         <v>146</v>
       </c>
       <c r="H65" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J65" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R65" t="s">
         <v>87</v>
       </c>
       <c r="S65" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="2:19">
@@ -4034,16 +4088,16 @@
         <v>147</v>
       </c>
       <c r="H66" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J66" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R66" t="s">
         <v>87</v>
       </c>
       <c r="S66" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67" spans="2:19">
@@ -4063,16 +4117,16 @@
         <v>148</v>
       </c>
       <c r="H67" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J67" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R67" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S67" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="2:19">
@@ -4092,16 +4146,16 @@
         <v>149</v>
       </c>
       <c r="H68" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="J68" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="R68" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S68" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" spans="2:19">
@@ -4121,16 +4175,16 @@
         <v>150</v>
       </c>
       <c r="H69" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J69" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="R69" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S69" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70" spans="2:19">
@@ -4150,16 +4204,16 @@
         <v>151</v>
       </c>
       <c r="H70" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J70" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="R70" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S70" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="2:19">
@@ -4179,16 +4233,16 @@
         <v>152</v>
       </c>
       <c r="H71" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J71" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="R71" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S71" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72" spans="2:19">
@@ -4208,16 +4262,16 @@
         <v>153</v>
       </c>
       <c r="H72" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="J72" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="R72" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S72" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="2:19">
@@ -4237,16 +4291,16 @@
         <v>154</v>
       </c>
       <c r="H73" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J73" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R73" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S73" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74" spans="2:19">
@@ -4266,16 +4320,16 @@
         <v>155</v>
       </c>
       <c r="H74" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="J74" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="R74" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S74" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="2:19">
@@ -4295,16 +4349,16 @@
         <v>145</v>
       </c>
       <c r="H75" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J75" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R75" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S75" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" spans="2:19">
@@ -4324,16 +4378,16 @@
         <v>156</v>
       </c>
       <c r="H76" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="J76" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R76" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S76" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="2:19">
@@ -4353,16 +4407,16 @@
         <v>157</v>
       </c>
       <c r="H77" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="J77" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R77" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S77" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="2:19">
@@ -4382,16 +4436,16 @@
         <v>158</v>
       </c>
       <c r="H78" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="J78" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="R78" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S78" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" spans="2:19">
@@ -4411,16 +4465,16 @@
         <v>159</v>
       </c>
       <c r="H79" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="J79" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R79" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S79" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" spans="2:19">
@@ -4440,16 +4494,16 @@
         <v>140</v>
       </c>
       <c r="H80" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J80" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="R80" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S80" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="2:19">
@@ -4472,13 +4526,13 @@
         <v>303</v>
       </c>
       <c r="J81" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R81" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S81" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="2:19">
@@ -4498,16 +4552,16 @@
         <v>160</v>
       </c>
       <c r="H82" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="J82" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R82" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S82" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="2:19">
@@ -4527,16 +4581,16 @@
         <v>161</v>
       </c>
       <c r="H83" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J83" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="R83" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S83" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="2:19">
@@ -4556,16 +4610,16 @@
         <v>162</v>
       </c>
       <c r="H84" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J84" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="R84" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S84" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="2:19">
@@ -4585,16 +4639,16 @@
         <v>145</v>
       </c>
       <c r="H85" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J85" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="R85" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S85" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" spans="2:19">
@@ -4614,16 +4668,16 @@
         <v>163</v>
       </c>
       <c r="H86" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="J86" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R86" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S86" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="2:19">
@@ -4643,16 +4697,16 @@
         <v>164</v>
       </c>
       <c r="H87" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="J87" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R87" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S87" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" spans="2:19">
@@ -4675,13 +4729,13 @@
         <v>302</v>
       </c>
       <c r="J88" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R88" t="s">
         <v>85</v>
       </c>
       <c r="S88" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="2:19">
@@ -4701,16 +4755,16 @@
         <v>165</v>
       </c>
       <c r="H89" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J89" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R89" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="S89" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90" spans="2:19">
@@ -4730,16 +4784,16 @@
         <v>166</v>
       </c>
       <c r="H90" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="J90" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R90" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="S90" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91" spans="2:19">
@@ -4759,16 +4813,16 @@
         <v>167</v>
       </c>
       <c r="H91" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J91" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R91" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="S91" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="2:19">
@@ -4788,16 +4842,16 @@
         <v>145</v>
       </c>
       <c r="H92" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J92" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R92" t="s">
         <v>87</v>
       </c>
       <c r="S92" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" spans="2:19">
@@ -4817,16 +4871,16 @@
         <v>146</v>
       </c>
       <c r="H93" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J93" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R93" t="s">
         <v>87</v>
       </c>
       <c r="S93" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="2:19">
@@ -4846,16 +4900,16 @@
         <v>147</v>
       </c>
       <c r="H94" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J94" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="R94" t="s">
         <v>87</v>
       </c>
       <c r="S94" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" spans="2:19">
@@ -4875,16 +4929,16 @@
         <v>168</v>
       </c>
       <c r="H95" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="J95" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R95" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S95" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96" spans="2:19">
@@ -4904,16 +4958,16 @@
         <v>169</v>
       </c>
       <c r="H96" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J96" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R96" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S96" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -4933,16 +4987,16 @@
         <v>170</v>
       </c>
       <c r="H97" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J97" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="R97" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S97" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="2:19">
@@ -4962,16 +5016,16 @@
         <v>171</v>
       </c>
       <c r="H98" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J98" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R98" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S98" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="2:19">
@@ -4991,16 +5045,16 @@
         <v>172</v>
       </c>
       <c r="H99" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J99" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R99" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S99" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="2:19">
@@ -5020,16 +5074,16 @@
         <v>173</v>
       </c>
       <c r="H100" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J100" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R100" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S100" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101" spans="2:19">
@@ -5049,16 +5103,16 @@
         <v>174</v>
       </c>
       <c r="H101" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="J101" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R101" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S101" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102" spans="2:19">
@@ -5078,16 +5132,16 @@
         <v>175</v>
       </c>
       <c r="H102" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="J102" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="R102" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S102" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="2:19">
@@ -5107,16 +5161,16 @@
         <v>176</v>
       </c>
       <c r="H103" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="J103" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R103" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S103" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104" spans="2:19">
@@ -5136,16 +5190,16 @@
         <v>138</v>
       </c>
       <c r="H104" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J104" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="R104" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S104" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="105" spans="2:19">
@@ -5165,16 +5219,16 @@
         <v>177</v>
       </c>
       <c r="H105" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="J105" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="R105" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S105" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="2:19">
@@ -5197,13 +5251,13 @@
         <v>303</v>
       </c>
       <c r="J106" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R106" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S106" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="2:19">
@@ -5223,16 +5277,16 @@
         <v>178</v>
       </c>
       <c r="H107" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="J107" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R107" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S107" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="2:19">
@@ -5252,16 +5306,16 @@
         <v>179</v>
       </c>
       <c r="H108" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J108" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R108" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S108" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109" spans="2:19">
@@ -5281,16 +5335,16 @@
         <v>180</v>
       </c>
       <c r="H109" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="J109" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="R109" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S109" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110" spans="2:19">
@@ -5310,16 +5364,16 @@
         <v>146</v>
       </c>
       <c r="H110" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J110" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="R110" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S110" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="111" spans="2:19">
@@ -5339,16 +5393,16 @@
         <v>181</v>
       </c>
       <c r="H111" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="J111" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R111" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S111" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="2:19">
@@ -5368,16 +5422,16 @@
         <v>136</v>
       </c>
       <c r="H112" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J112" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R112" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S112" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" spans="2:19">
@@ -5397,16 +5451,16 @@
         <v>137</v>
       </c>
       <c r="H113" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="J113" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R113" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S113" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" spans="2:19">
@@ -5426,16 +5480,16 @@
         <v>182</v>
       </c>
       <c r="H114" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J114" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R114" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S114" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="2:19">
@@ -5455,16 +5509,16 @@
         <v>183</v>
       </c>
       <c r="H115" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="J115" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R115" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S115" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="116" spans="2:19">
@@ -5487,13 +5541,13 @@
         <v>303</v>
       </c>
       <c r="J116" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R116" t="s">
         <v>85</v>
       </c>
       <c r="S116" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" spans="2:19">
@@ -5513,16 +5567,16 @@
         <v>185</v>
       </c>
       <c r="H117" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="J117" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R117" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S117" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="118" spans="2:19">
@@ -5542,16 +5596,16 @@
         <v>186</v>
       </c>
       <c r="H118" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="J118" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R118" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="S118" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="2:19">
@@ -5571,16 +5625,16 @@
         <v>148</v>
       </c>
       <c r="H119" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J119" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="R119" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S119" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="2:19">
@@ -5600,16 +5654,16 @@
         <v>187</v>
       </c>
       <c r="H120" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="J120" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="R120" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S120" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="2:19">
@@ -5632,13 +5686,13 @@
         <v>189</v>
       </c>
       <c r="J121" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R121" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S121" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="2:19">
@@ -5658,16 +5712,16 @@
         <v>189</v>
       </c>
       <c r="H122" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="J122" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="R122" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S122" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="123" spans="2:19">
@@ -5687,16 +5741,16 @@
         <v>190</v>
       </c>
       <c r="H123" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="J123" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="R123" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S123" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="2:19">
@@ -5719,13 +5773,13 @@
         <v>192</v>
       </c>
       <c r="J124" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R124" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S124" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="2:19">
@@ -5745,16 +5799,16 @@
         <v>192</v>
       </c>
       <c r="H125" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="J125" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="R125" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S125" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="126" spans="2:19">
@@ -5774,16 +5828,16 @@
         <v>139</v>
       </c>
       <c r="H126" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="J126" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R126" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S126" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" spans="2:19">
@@ -5803,16 +5857,16 @@
         <v>193</v>
       </c>
       <c r="H127" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="J127" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="R127" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S127" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" spans="2:19">
@@ -5835,13 +5889,13 @@
         <v>195</v>
       </c>
       <c r="J128" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R128" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="S128" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" spans="2:19">
@@ -5861,16 +5915,16 @@
         <v>195</v>
       </c>
       <c r="H129" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="J129" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="R129" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S129" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="130" spans="2:19">
@@ -5890,16 +5944,16 @@
         <v>143</v>
       </c>
       <c r="H130" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J130" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="R130" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S130" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="2:19">
@@ -5919,16 +5973,16 @@
         <v>196</v>
       </c>
       <c r="H131" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J131" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="R131" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S131" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="132" spans="2:19">
@@ -5951,13 +6005,13 @@
         <v>198</v>
       </c>
       <c r="J132" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R132" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S132" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="2:19">
@@ -5977,16 +6031,16 @@
         <v>198</v>
       </c>
       <c r="H133" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="J133" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="R133" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S133" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="134" spans="2:19">
@@ -6006,16 +6060,16 @@
         <v>198</v>
       </c>
       <c r="H134" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="J134" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="R134" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="S134" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="135" spans="2:19">
@@ -6035,16 +6089,16 @@
         <v>199</v>
       </c>
       <c r="H135" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="J135" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R135" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S135" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="136" spans="2:19">
@@ -6064,16 +6118,16 @@
         <v>146</v>
       </c>
       <c r="H136" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J136" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="R136" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S136" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="137" spans="2:19">
@@ -6093,16 +6147,16 @@
         <v>200</v>
       </c>
       <c r="H137" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="J137" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="R137" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S137" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="2:19">
@@ -6122,16 +6176,16 @@
         <v>147</v>
       </c>
       <c r="H138" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J138" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="R138" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S138" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" spans="2:19">
@@ -6151,16 +6205,16 @@
         <v>201</v>
       </c>
       <c r="H139" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="J139" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R139" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S139" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="2:19">
@@ -6180,16 +6234,16 @@
         <v>202</v>
       </c>
       <c r="H140" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="J140" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="R140" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S140" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="141" spans="2:19">
@@ -6209,16 +6263,16 @@
         <v>203</v>
       </c>
       <c r="H141" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="J141" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R141" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S141" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="2:19">
@@ -6238,16 +6292,16 @@
         <v>204</v>
       </c>
       <c r="H142" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="J142" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="R142" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S142" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="2:19">
@@ -6267,16 +6321,16 @@
         <v>205</v>
       </c>
       <c r="H143" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="J143" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="R143" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S143" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="2:19">
@@ -6296,16 +6350,16 @@
         <v>140</v>
       </c>
       <c r="H144" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J144" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="R144" t="s">
         <v>88</v>
       </c>
       <c r="S144" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" spans="2:19">
@@ -6325,16 +6379,16 @@
         <v>206</v>
       </c>
       <c r="H145" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="J145" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R145" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S145" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="2:19">
@@ -6354,16 +6408,16 @@
         <v>207</v>
       </c>
       <c r="H146" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="J146" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R146" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S146" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="147" spans="2:19">
@@ -6383,16 +6437,16 @@
         <v>208</v>
       </c>
       <c r="H147" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="J147" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R147" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S147" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="148" spans="2:19">
@@ -6412,16 +6466,16 @@
         <v>209</v>
       </c>
       <c r="H148" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="J148" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="R148" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S148" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="149" spans="2:19">
@@ -6441,16 +6495,16 @@
         <v>210</v>
       </c>
       <c r="H149" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="J149" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="R149" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S149" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" spans="2:19">
@@ -6470,16 +6524,16 @@
         <v>146</v>
       </c>
       <c r="H150" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J150" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="R150" t="s">
         <v>88</v>
       </c>
       <c r="S150" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" spans="2:19">
@@ -6499,16 +6553,16 @@
         <v>211</v>
       </c>
       <c r="H151" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="J151" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R151" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S151" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="2:19">
@@ -6528,16 +6582,16 @@
         <v>212</v>
       </c>
       <c r="H152" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="J152" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R152" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S152" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="153" spans="2:19">
@@ -6557,16 +6611,16 @@
         <v>213</v>
       </c>
       <c r="H153" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="J153" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="R153" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S153" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="154" spans="2:19">
@@ -6586,16 +6640,16 @@
         <v>214</v>
       </c>
       <c r="H154" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="J154" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R154" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S154" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="155" spans="2:19">
@@ -6615,16 +6669,16 @@
         <v>215</v>
       </c>
       <c r="H155" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="J155" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="R155" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="S155" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="156" spans="2:19">
@@ -6644,16 +6698,16 @@
         <v>216</v>
       </c>
       <c r="H156" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J156" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R156" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="S156" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="157" spans="2:19">
@@ -6676,13 +6730,13 @@
         <v>321</v>
       </c>
       <c r="J157" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R157" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="S157" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="158" spans="2:19">
@@ -6705,13 +6759,13 @@
         <v>322</v>
       </c>
       <c r="J158" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R158" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="S158" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="159" spans="2:19">
@@ -6731,16 +6785,16 @@
         <v>119</v>
       </c>
       <c r="H159" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J159" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R159" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="S159" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="160" spans="2:19">
@@ -6760,16 +6814,16 @@
         <v>217</v>
       </c>
       <c r="H160" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="J160" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R160" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="S160" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="161" spans="2:19">
@@ -6789,16 +6843,16 @@
         <v>218</v>
       </c>
       <c r="H161" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="J161" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R161" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S161" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="162" spans="2:19">
@@ -6818,16 +6872,16 @@
         <v>219</v>
       </c>
       <c r="H162" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="J162" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R162" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S162" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="163" spans="2:19">
@@ -6847,16 +6901,16 @@
         <v>220</v>
       </c>
       <c r="H163" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="J163" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R163" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S163" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="164" spans="2:19">
@@ -6876,16 +6930,16 @@
         <v>221</v>
       </c>
       <c r="H164" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="J164" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R164" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S164" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="165" spans="2:19">
@@ -6905,16 +6959,16 @@
         <v>222</v>
       </c>
       <c r="H165" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="J165" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R165" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S165" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="166" spans="2:19">
@@ -6934,16 +6988,16 @@
         <v>223</v>
       </c>
       <c r="H166" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="J166" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R166" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S166" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="2:19">
@@ -6963,16 +7017,16 @@
         <v>224</v>
       </c>
       <c r="H167" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="J167" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="R167" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S167" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="168" spans="2:19">
@@ -6995,13 +7049,13 @@
         <v>198</v>
       </c>
       <c r="J168" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R168" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S168" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="169" spans="2:19">
@@ -7021,16 +7075,16 @@
         <v>226</v>
       </c>
       <c r="H169" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="J169" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="R169" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S169" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="170" spans="2:19">
@@ -7050,16 +7104,16 @@
         <v>109</v>
       </c>
       <c r="H170" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="J170" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="R170" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="S170" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" spans="2:19">
@@ -7082,13 +7136,13 @@
         <v>321</v>
       </c>
       <c r="J171" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R171" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="S171" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="172" spans="2:19">
@@ -7111,13 +7165,13 @@
         <v>322</v>
       </c>
       <c r="J172" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R172" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="S172" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="173" spans="2:19">
@@ -7137,16 +7191,16 @@
         <v>227</v>
       </c>
       <c r="H173" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="J173" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R173" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S173" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="174" spans="2:19">
@@ -7166,16 +7220,16 @@
         <v>228</v>
       </c>
       <c r="H174" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="J174" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R174" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S174" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="2:19">
@@ -7195,16 +7249,16 @@
         <v>229</v>
       </c>
       <c r="H175" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="J175" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R175" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S175" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="2:19">
@@ -7224,16 +7278,16 @@
         <v>230</v>
       </c>
       <c r="H176" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="J176" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R176" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S176" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="2:19">
@@ -7253,16 +7307,16 @@
         <v>231</v>
       </c>
       <c r="H177" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="J177" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R177" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S177" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="2:19">
@@ -7282,16 +7336,16 @@
         <v>232</v>
       </c>
       <c r="H178" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="J178" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R178" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S178" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="179" spans="2:19">
@@ -7311,16 +7365,16 @@
         <v>233</v>
       </c>
       <c r="H179" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J179" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R179" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S179" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="180" spans="2:19">
@@ -7340,16 +7394,16 @@
         <v>180</v>
       </c>
       <c r="H180" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="J180" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R180" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S180" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="181" spans="2:19">
@@ -7369,16 +7423,16 @@
         <v>234</v>
       </c>
       <c r="H181" t="s">
-        <v>234</v>
+        <v>442</v>
       </c>
       <c r="J181" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R181" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S181" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="182" spans="2:19">
@@ -7398,16 +7452,16 @@
         <v>193</v>
       </c>
       <c r="H182" t="s">
-        <v>193</v>
+        <v>443</v>
       </c>
       <c r="J182" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R182" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S182" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="183" spans="2:19">
@@ -7427,16 +7481,16 @@
         <v>235</v>
       </c>
       <c r="H183" t="s">
-        <v>235</v>
+        <v>444</v>
       </c>
       <c r="J183" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R183" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="S183" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="184" spans="2:19">
@@ -7456,16 +7510,16 @@
         <v>236</v>
       </c>
       <c r="H184" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="J184" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R184" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S184" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="185" spans="2:19">
@@ -7485,16 +7539,16 @@
         <v>132</v>
       </c>
       <c r="H185" t="s">
-        <v>132</v>
+        <v>446</v>
       </c>
       <c r="J185" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R185" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="S185" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="186" spans="2:19">
@@ -7514,16 +7568,16 @@
         <v>237</v>
       </c>
       <c r="H186" t="s">
-        <v>237</v>
+        <v>447</v>
       </c>
       <c r="J186" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R186" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S186" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" spans="2:19">
@@ -7543,16 +7597,16 @@
         <v>238</v>
       </c>
       <c r="H187" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="J187" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="R187" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S187" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" spans="2:19">
@@ -7572,16 +7626,16 @@
         <v>239</v>
       </c>
       <c r="H188" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="J188" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="R188" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S188" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="2:19">
@@ -7601,16 +7655,16 @@
         <v>203</v>
       </c>
       <c r="H189" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="J189" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="R189" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S189" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="190" spans="2:19">
@@ -7630,16 +7684,16 @@
         <v>240</v>
       </c>
       <c r="H190" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="J190" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R190" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S190" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="191" spans="2:19">
@@ -7659,16 +7713,16 @@
         <v>139</v>
       </c>
       <c r="H191" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="J191" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="R191" t="s">
         <v>88</v>
       </c>
       <c r="S191" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" spans="2:19">
@@ -7688,16 +7742,16 @@
         <v>241</v>
       </c>
       <c r="H192" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="J192" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="R192" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S192" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" spans="2:19">
@@ -7717,16 +7771,16 @@
         <v>140</v>
       </c>
       <c r="H193" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J193" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="R193" t="s">
         <v>88</v>
       </c>
       <c r="S193" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="194" spans="2:19">
@@ -7746,16 +7800,16 @@
         <v>242</v>
       </c>
       <c r="H194" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="J194" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R194" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S194" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="195" spans="2:19">
@@ -7775,16 +7829,16 @@
         <v>243</v>
       </c>
       <c r="H195" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="J195" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="R195" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S195" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="196" spans="2:19">
@@ -7804,16 +7858,16 @@
         <v>244</v>
       </c>
       <c r="H196" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="J196" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="R196" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S196" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="197" spans="2:19">
@@ -7833,16 +7887,16 @@
         <v>144</v>
       </c>
       <c r="H197" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J197" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="R197" t="s">
         <v>88</v>
       </c>
       <c r="S197" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="198" spans="2:19">
@@ -7862,16 +7916,16 @@
         <v>245</v>
       </c>
       <c r="H198" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="J198" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R198" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S198" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="2:19">
@@ -7891,16 +7945,16 @@
         <v>210</v>
       </c>
       <c r="H199" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="J199" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="R199" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S199" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="200" spans="2:19">
@@ -7920,16 +7974,16 @@
         <v>146</v>
       </c>
       <c r="H200" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J200" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="R200" t="s">
         <v>88</v>
       </c>
       <c r="S200" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" spans="2:19">
@@ -7949,16 +8003,16 @@
         <v>246</v>
       </c>
       <c r="H201" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J201" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R201" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S201" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="202" spans="2:19">
@@ -7978,16 +8032,16 @@
         <v>247</v>
       </c>
       <c r="H202" t="s">
-        <v>247</v>
+        <v>458</v>
       </c>
       <c r="J202" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="R202" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="S202" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="203" spans="2:19">
@@ -8007,16 +8061,16 @@
         <v>248</v>
       </c>
       <c r="H203" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="J203" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R203" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S203" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="204" spans="2:19">
@@ -8036,16 +8090,16 @@
         <v>249</v>
       </c>
       <c r="H204" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="J204" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R204" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S204" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="205" spans="2:19">
@@ -8065,16 +8119,16 @@
         <v>250</v>
       </c>
       <c r="H205" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="J205" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R205" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S205" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="206" spans="2:19">
@@ -8094,16 +8148,16 @@
         <v>251</v>
       </c>
       <c r="H206" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="J206" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R206" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S206" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="2:19">
@@ -8123,16 +8177,16 @@
         <v>252</v>
       </c>
       <c r="H207" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="J207" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R207" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S207" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="208" spans="2:19">
@@ -8152,16 +8206,16 @@
         <v>253</v>
       </c>
       <c r="H208" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="J208" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R208" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S208" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="2:19">
@@ -8181,16 +8235,16 @@
         <v>142</v>
       </c>
       <c r="H209" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J209" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R209" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S209" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="210" spans="2:19">
@@ -8210,16 +8264,16 @@
         <v>254</v>
       </c>
       <c r="H210" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="J210" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R210" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S210" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="211" spans="2:19">
@@ -8239,16 +8293,16 @@
         <v>255</v>
       </c>
       <c r="H211" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="J211" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R211" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S211" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="212" spans="2:19">
@@ -8268,16 +8322,16 @@
         <v>233</v>
       </c>
       <c r="H212" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="J212" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R212" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S212" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="213" spans="2:19">
@@ -8297,16 +8351,16 @@
         <v>180</v>
       </c>
       <c r="H213" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="J213" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R213" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S213" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="214" spans="2:19">
@@ -8329,13 +8383,13 @@
         <v>320</v>
       </c>
       <c r="J214" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="R214" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S214" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="215" spans="2:19">
@@ -8355,16 +8409,16 @@
         <v>110</v>
       </c>
       <c r="H215" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="J215" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="R215" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S215" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="216" spans="2:19">
@@ -8387,13 +8441,13 @@
         <v>322</v>
       </c>
       <c r="J216" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="R216" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S216" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="217" spans="2:19">
@@ -8416,13 +8470,13 @@
         <v>323</v>
       </c>
       <c r="J217" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R217" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S217" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="2:19">
@@ -8445,13 +8499,13 @@
         <v>324</v>
       </c>
       <c r="J218" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R218" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S218" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="219" spans="2:19">
@@ -8471,16 +8525,16 @@
         <v>148</v>
       </c>
       <c r="H219" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J219" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R219" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S219" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="220" spans="2:19">
@@ -8500,16 +8554,16 @@
         <v>257</v>
       </c>
       <c r="H220" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="J220" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="R220" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S220" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="221" spans="2:19">
@@ -8529,16 +8583,16 @@
         <v>258</v>
       </c>
       <c r="H221" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="J221" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R221" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S221" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="222" spans="2:19">
@@ -8558,16 +8612,16 @@
         <v>259</v>
       </c>
       <c r="H222" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="J222" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="R222" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S222" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="223" spans="2:19">
@@ -8587,16 +8641,16 @@
         <v>150</v>
       </c>
       <c r="H223" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="J223" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="R223" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S223" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="2:19">
@@ -8616,16 +8670,16 @@
         <v>126</v>
       </c>
       <c r="H224" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="J224" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="R224" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S224" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="225" spans="2:19">
@@ -8645,16 +8699,16 @@
         <v>144</v>
       </c>
       <c r="H225" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J225" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R225" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="S225" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="226" spans="2:19">
@@ -8674,16 +8728,16 @@
         <v>145</v>
       </c>
       <c r="H226" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J226" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R226" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="S226" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="227" spans="2:19">
@@ -8703,16 +8757,16 @@
         <v>260</v>
       </c>
       <c r="H227" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="J227" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="R227" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S227" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="228" spans="2:19">
@@ -8732,16 +8786,16 @@
         <v>109</v>
       </c>
       <c r="H228" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J228" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R228" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S228" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="229" spans="2:19">
@@ -8764,13 +8818,13 @@
         <v>321</v>
       </c>
       <c r="J229" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R229" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S229" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="230" spans="2:19">
@@ -8793,13 +8847,13 @@
         <v>322</v>
       </c>
       <c r="J230" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="R230" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S230" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231" spans="2:19">
@@ -8822,13 +8876,13 @@
         <v>323</v>
       </c>
       <c r="J231" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R231" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S231" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="232" spans="2:19">
@@ -8848,16 +8902,16 @@
         <v>262</v>
       </c>
       <c r="H232" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="J232" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R232" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S232" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="233" spans="2:19">
@@ -8877,16 +8931,16 @@
         <v>190</v>
       </c>
       <c r="H233" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="J233" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R233" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="S233" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="234" spans="2:19">
@@ -8906,16 +8960,16 @@
         <v>263</v>
       </c>
       <c r="H234" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="J234" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R234" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S234" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="235" spans="2:19">
@@ -8935,16 +8989,16 @@
         <v>138</v>
       </c>
       <c r="H235" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J235" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R235" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S235" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="236" spans="2:19">
@@ -8964,16 +9018,16 @@
         <v>264</v>
       </c>
       <c r="H236" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="J236" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R236" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S236" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="237" spans="2:19">
@@ -8993,16 +9047,16 @@
         <v>265</v>
       </c>
       <c r="H237" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="J237" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R237" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S237" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="2:19">
@@ -9022,16 +9076,16 @@
         <v>266</v>
       </c>
       <c r="H238" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="J238" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R238" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S238" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="239" spans="2:19">
@@ -9051,16 +9105,16 @@
         <v>267</v>
       </c>
       <c r="H239" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="J239" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R239" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S239" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="240" spans="2:19">
@@ -9080,16 +9134,16 @@
         <v>268</v>
       </c>
       <c r="H240" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="J240" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R240" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S240" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="241" spans="2:19">
@@ -9109,16 +9163,16 @@
         <v>145</v>
       </c>
       <c r="H241" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J241" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R241" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S241" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="242" spans="2:19">
@@ -9138,16 +9192,16 @@
         <v>269</v>
       </c>
       <c r="H242" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="J242" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R242" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S242" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="2:19">
@@ -9167,16 +9221,16 @@
         <v>216</v>
       </c>
       <c r="H243" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J243" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R243" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S243" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="244" spans="2:19">
@@ -9196,16 +9250,16 @@
         <v>194</v>
       </c>
       <c r="H244" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="J244" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R244" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S244" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="245" spans="2:19">
@@ -9225,16 +9279,16 @@
         <v>270</v>
       </c>
       <c r="H245" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="J245" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R245" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S245" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="246" spans="2:19">
@@ -9257,13 +9311,13 @@
         <v>323</v>
       </c>
       <c r="J246" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R246" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S246" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="247" spans="2:19">
@@ -9286,13 +9340,13 @@
         <v>324</v>
       </c>
       <c r="J247" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R247" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S247" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="248" spans="2:19">
@@ -9312,16 +9366,16 @@
         <v>271</v>
       </c>
       <c r="H248" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="J248" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="R248" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S248" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="2:19">
@@ -9344,13 +9398,13 @@
         <v>187</v>
       </c>
       <c r="J249" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R249" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S249" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="250" spans="2:19">
@@ -9370,16 +9424,16 @@
         <v>273</v>
       </c>
       <c r="H250" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="J250" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R250" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S250" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="251" spans="2:19">
@@ -9399,16 +9453,16 @@
         <v>274</v>
       </c>
       <c r="H251" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="J251" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="R251" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S251" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="252" spans="2:19">
@@ -9428,16 +9482,16 @@
         <v>275</v>
       </c>
       <c r="H252" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="J252" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R252" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="S252" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="253" spans="2:19">
@@ -9457,16 +9511,16 @@
         <v>276</v>
       </c>
       <c r="H253" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="J253" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R253" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S253" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="2:19">
@@ -9486,16 +9540,16 @@
         <v>109</v>
       </c>
       <c r="H254" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="J254" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="R254" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="S254" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="255" spans="2:19">
@@ -9518,13 +9572,13 @@
         <v>321</v>
       </c>
       <c r="J255" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R255" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="S255" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="256" spans="2:19">
@@ -9547,13 +9601,13 @@
         <v>322</v>
       </c>
       <c r="J256" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R256" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="S256" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="257" spans="2:19">
@@ -9573,16 +9627,16 @@
         <v>217</v>
       </c>
       <c r="H257" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="J257" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R257" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="S257" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="258" spans="2:19">
@@ -9602,16 +9656,16 @@
         <v>277</v>
       </c>
       <c r="H258" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="J258" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="R258" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S258" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="259" spans="2:19">
@@ -9634,13 +9688,13 @@
         <v>321</v>
       </c>
       <c r="J259" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="R259" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S259" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="260" spans="2:19">
@@ -9663,13 +9717,13 @@
         <v>322</v>
       </c>
       <c r="J260" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="R260" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S260" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="261" spans="2:19">
@@ -9689,16 +9743,16 @@
         <v>245</v>
       </c>
       <c r="H261" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="J261" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="R261" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S261" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262" spans="2:19">
@@ -9718,16 +9772,16 @@
         <v>226</v>
       </c>
       <c r="H262" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="J262" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R262" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S262" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="263" spans="2:19">
@@ -9747,16 +9801,16 @@
         <v>109</v>
       </c>
       <c r="H263" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J263" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R263" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S263" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="264" spans="2:19">
@@ -9779,13 +9833,13 @@
         <v>321</v>
       </c>
       <c r="J264" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R264" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S264" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="265" spans="2:19">
@@ -9808,13 +9862,13 @@
         <v>322</v>
       </c>
       <c r="J265" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R265" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S265" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266" spans="2:19">
@@ -9837,13 +9891,13 @@
         <v>323</v>
       </c>
       <c r="J266" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R266" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S266" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="267" spans="2:19">
@@ -9866,13 +9920,13 @@
         <v>324</v>
       </c>
       <c r="J267" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R267" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S267" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="268" spans="2:19">
@@ -9892,16 +9946,16 @@
         <v>109</v>
       </c>
       <c r="H268" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J268" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R268" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S268" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="269" spans="2:19">
@@ -9924,13 +9978,13 @@
         <v>321</v>
       </c>
       <c r="J269" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R269" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S269" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="270" spans="2:19">
@@ -9953,13 +10007,13 @@
         <v>322</v>
       </c>
       <c r="J270" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="R270" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S270" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="271" spans="2:19">
@@ -9982,13 +10036,13 @@
         <v>323</v>
       </c>
       <c r="J271" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="R271" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S271" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="272" spans="2:19">
@@ -10011,13 +10065,13 @@
         <v>324</v>
       </c>
       <c r="J272" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R272" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S272" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="273" spans="2:19">
@@ -10037,16 +10091,16 @@
         <v>279</v>
       </c>
       <c r="H273" t="s">
-        <v>279</v>
+        <v>493</v>
       </c>
       <c r="J273" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="R273" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S273" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="2:19">
@@ -10066,16 +10120,16 @@
         <v>248</v>
       </c>
       <c r="H274" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="J274" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="R274" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S274" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="275" spans="2:19">
@@ -10095,16 +10149,16 @@
         <v>280</v>
       </c>
       <c r="H275" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="J275" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="R275" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S275" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="276" spans="2:19">
@@ -10124,16 +10178,16 @@
         <v>281</v>
       </c>
       <c r="H276" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="J276" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R276" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S276" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="277" spans="2:19">
@@ -10153,16 +10207,16 @@
         <v>190</v>
       </c>
       <c r="H277" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="J277" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R277" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S277" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="278" spans="2:19">
@@ -10185,13 +10239,13 @@
         <v>283</v>
       </c>
       <c r="J278" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="R278" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S278" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="279" spans="2:19">
@@ -10211,16 +10265,16 @@
         <v>283</v>
       </c>
       <c r="H279" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="J279" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="R279" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="S279" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="280" spans="2:19">
@@ -10240,16 +10294,16 @@
         <v>139</v>
       </c>
       <c r="H280" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="J280" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="R280" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S280" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="281" spans="2:19">
@@ -10269,16 +10323,16 @@
         <v>284</v>
       </c>
       <c r="H281" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="J281" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="R281" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S281" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="282" spans="2:19">
@@ -10298,16 +10352,16 @@
         <v>285</v>
       </c>
       <c r="H282" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="J282" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="R282" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S282" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="283" spans="2:19">
@@ -10327,16 +10381,16 @@
         <v>142</v>
       </c>
       <c r="H283" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="J283" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="R283" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S283" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="284" spans="2:19">
@@ -10356,16 +10410,16 @@
         <v>143</v>
       </c>
       <c r="H284" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J284" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="R284" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S284" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="285" spans="2:19">
@@ -10385,16 +10439,16 @@
         <v>286</v>
       </c>
       <c r="H285" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="J285" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="R285" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S285" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="286" spans="2:19">
@@ -10414,16 +10468,16 @@
         <v>145</v>
       </c>
       <c r="H286" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="J286" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R286" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S286" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="287" spans="2:19">
@@ -10443,16 +10497,16 @@
         <v>287</v>
       </c>
       <c r="H287" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="J287" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R287" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S287" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="288" spans="2:19">
@@ -10472,16 +10526,16 @@
         <v>248</v>
       </c>
       <c r="H288" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="J288" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R288" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="S288" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="2:19">
@@ -10501,16 +10555,16 @@
         <v>288</v>
       </c>
       <c r="H289" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="J289" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="R289" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S289" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="290" spans="2:19">
@@ -10530,16 +10584,16 @@
         <v>289</v>
       </c>
       <c r="H290" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="J290" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="R290" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S290" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="291" spans="2:19">
@@ -10559,16 +10613,16 @@
         <v>290</v>
       </c>
       <c r="H291" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="J291" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R291" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S291" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="292" spans="2:19">
@@ -10591,13 +10645,13 @@
         <v>303</v>
       </c>
       <c r="J292" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R292" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S292" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="293" spans="2:19">
@@ -10617,16 +10671,16 @@
         <v>291</v>
       </c>
       <c r="H293" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="J293" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="R293" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S293" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="294" spans="2:19">
@@ -10646,16 +10700,16 @@
         <v>292</v>
       </c>
       <c r="H294" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="J294" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="R294" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S294" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="295" spans="2:19">
@@ -10675,16 +10729,16 @@
         <v>293</v>
       </c>
       <c r="H295" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="J295" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="R295" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S295" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="296" spans="2:19">
@@ -10704,16 +10758,16 @@
         <v>146</v>
       </c>
       <c r="H296" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J296" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R296" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S296" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="297" spans="2:19">
@@ -10733,16 +10787,16 @@
         <v>109</v>
       </c>
       <c r="H297" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="J297" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="R297" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S297" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="298" spans="2:19">
@@ -10765,13 +10819,13 @@
         <v>321</v>
       </c>
       <c r="J298" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R298" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S298" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="299" spans="2:19">
@@ -10794,13 +10848,13 @@
         <v>322</v>
       </c>
       <c r="J299" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R299" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S299" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="300" spans="2:19">
@@ -10820,16 +10874,16 @@
         <v>294</v>
       </c>
       <c r="H300" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="J300" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R300" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S300" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="301" spans="2:19">
@@ -10849,16 +10903,16 @@
         <v>295</v>
       </c>
       <c r="H301" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="J301" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R301" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S301" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="302" spans="2:19">
@@ -10878,16 +10932,16 @@
         <v>216</v>
       </c>
       <c r="H302" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="J302" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R302" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S302" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="303" spans="2:19">
@@ -10907,16 +10961,16 @@
         <v>194</v>
       </c>
       <c r="H303" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="J303" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R303" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S303" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="304" spans="2:19">
@@ -10936,16 +10990,16 @@
         <v>270</v>
       </c>
       <c r="H304" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="J304" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R304" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S304" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="305" spans="2:19">
@@ -10968,13 +11022,13 @@
         <v>323</v>
       </c>
       <c r="J305" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R305" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S305" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="306" spans="2:19">
@@ -10997,13 +11051,13 @@
         <v>324</v>
       </c>
       <c r="J306" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R306" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S306" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="307" spans="2:19">
@@ -11023,16 +11077,16 @@
         <v>109</v>
       </c>
       <c r="H307" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="J307" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="R307" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S307" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="308" spans="2:19">
@@ -11055,13 +11109,13 @@
         <v>321</v>
       </c>
       <c r="J308" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R308" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S308" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="309" spans="2:19">
@@ -11084,13 +11138,13 @@
         <v>322</v>
       </c>
       <c r="J309" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R309" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S309" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="310" spans="2:19">
@@ -11113,13 +11167,13 @@
         <v>323</v>
       </c>
       <c r="J310" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R310" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S310" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="311" spans="2:19">
@@ -11142,13 +11196,13 @@
         <v>324</v>
       </c>
       <c r="J311" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="R311" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="S311" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="312" spans="2:19">
@@ -11168,16 +11222,16 @@
         <v>296</v>
       </c>
       <c r="H312" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="J312" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R312" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S312" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="313" spans="2:19">
@@ -11197,16 +11251,16 @@
         <v>249</v>
       </c>
       <c r="H313" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="J313" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R313" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S313" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="314" spans="2:19">
@@ -11226,16 +11280,16 @@
         <v>190</v>
       </c>
       <c r="H314" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="J314" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R314" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S314" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="315" spans="2:19">
@@ -11255,16 +11309,16 @@
         <v>138</v>
       </c>
       <c r="H315" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J315" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R315" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="S315" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="316" spans="2:19">
@@ -11284,16 +11338,16 @@
         <v>297</v>
       </c>
       <c r="H316" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="J316" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R316" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S316" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="317" spans="2:19">
@@ -11313,16 +11367,16 @@
         <v>224</v>
       </c>
       <c r="H317" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="J317" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R317" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S317" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="318" spans="2:19">
@@ -11342,16 +11396,16 @@
         <v>298</v>
       </c>
       <c r="H318" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="J318" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R318" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S318" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="319" spans="2:19">
@@ -11371,16 +11425,16 @@
         <v>144</v>
       </c>
       <c r="H319" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="J319" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R319" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S319" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="320" spans="2:19">
@@ -11400,16 +11454,16 @@
         <v>233</v>
       </c>
       <c r="H320" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="J320" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="R320" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S320" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="321" spans="2:19">
@@ -11429,279 +11483,19 @@
         <v>299</v>
       </c>
       <c r="H321" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="J321" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R321" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="S321" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB59386B-AE4C-4DA9-8C99-D0DC8CDE4D3E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A8F58AB-5120-483B-9D03-E18CDC3B263E}"/>
 </file>